--- a/medicine/Mort/Melaten-Friedhof/Melaten-Friedhof.xlsx
+++ b/medicine/Mort/Melaten-Friedhof/Melaten-Friedhof.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Melaten-Friedhof (cimetière Melaten) est le cimetière central de la ville de Cologne, en Allemagne. 
 Il est situé à la frontière nord de Lindenthal (de), dans le district de Köln-Lindenthal (de). Au sud, le cimetière est bordé par la Aachener Straße (de), à l'est par la Piusstraße, à l'ouest par la Oskar-Jäger-Straße et le Melatengürtel, et au nord par la Weinsbergstraße. 
@@ -516,17 +528,56 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A
-August Adenauer (1872–1952)
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>August Adenauer (1872–1952)
 Hanna Adenauer (1904–1978)
 Johann Franz Ahn (1796–1865)
 Franz Albermann (1877–1959)
 Max Albermann (1870–1927)
 Wilhelm Albermann (1835–1913), sculpteur
 Otto Andreae (1833–1910)
-Wolfgang Anheisser (1929–1974), baryton
-B
-Johannes Theodor Baargeld (1892–1927), artiste et écrivain
+Wolfgang Anheisser (1929–1974), baryton</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Melaten-Friedhof</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Melaten-Friedhof</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Johannes Theodor Baargeld (1892–1927), artiste et écrivain
 Dirk Bach (1961–2012), comédien et homme de télévision
 Alexander Bachem (1806–1878)
 Julius Bachem (1845–1918)
@@ -546,9 +597,43 @@
 Norbert Burger (1932–2012)
 Heinrich Bürgers (1820–1878)
 Theo Burauen (1906–1987)
-Fritz Burgbacher (1900–1978)
-C
-Herbert Callhoff (1933–2016)
+Fritz Burgbacher (1900–1978)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Melaten-Friedhof</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Melaten-Friedhof</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Herbert Callhoff (1933–2016)
 Ludolf Camphausen (1803–1890)
 Hermann Cardauns (1847–1925)
 Claus Hinrich Casdorff (1925–2004)
@@ -556,9 +641,43 @@
 Johann Classen-Kappelmann (1816–1879)
 Franz Clouth (1838–1910)
 Sophia Czory (1930–1996)
-Holger Czukay (1938–2017)
-D
-Bernhard Deermann (1887–1982)
+Holger Czukay (1938–2017)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Melaten-Friedhof</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Melaten-Friedhof</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Bernhard Deermann (1887–1982)
 Wilhelm Ludwig Deichmann (1798–1876)
 Daniel Heinrich Delius (1773–1832)
 René Deltgen (1909–1979)
@@ -568,13 +687,81 @@
 Hubert Dormagen (1806–1886)
 Joseph DuMont (1811–1861)
 Marcus DuMont (1784–1831)
-Michael Joseph DuMont
-E
-Christian Eckert (1874–1952)
+Michael Joseph DuMont</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Melaten-Friedhof</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Melaten-Friedhof</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Christian Eckert (1874–1952)
 Eduard Endler (1860–1932)
-Wilhelm Ewald (1878–1955)
-F
-Jean Marie Farina (1809–1880)
+Wilhelm Ewald (1878–1955)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Melaten-Friedhof</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Melaten-Friedhof</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Jean Marie Farina (1809–1880)
 Johann Baptist Farina (1758–1844)
 Johann Maria Farina (1685–1766)
 Johann Maria Carl Farina (1840–1896)
@@ -588,9 +775,43 @@
 Martin Wilhelm Fonck (1752–1830)
 Robert Januarius von Frankenberg (1807–1873)
 Peter Joseph Früh (1862–1915)
-Peter Fuchs (1829–1898), sculpteur
-G
-Ludwig Gies (1887–1966)
+Peter Fuchs (1829–1898), sculpteur</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Melaten-Friedhof</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Melaten-Friedhof</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Ludwig Gies (1887–1966)
 Robert Görlinger (1888–1954)
 Hermann Götting (1939–2004)
 Andreas Gottschalk (1815–1849)
@@ -608,25 +829,127 @@
 Bernhard Günther (1906–1981)
 Alice Guszalewicz (1866–1942)
 Eugen Guszalewicz (1867–1907)
-Paulina Olga Guszalewicz (1897–1965)
-H
-Wolfgang Hahn
+Paulina Olga Guszalewicz (1897–1965)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Melaten-Friedhof</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Melaten-Friedhof</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Wolfgang Hahn
 Albin Hänseroth (1939–2004)
 Josef Haubrich (1889–1961)
 Herbert Hax (1933–2005)
 Iwan David Herstatt (1913–1995)
 Ferdinand Hiller (1811–1885), compositeur et chef d'orchestre
 Andreas Hillgruber (1925–1989)
-Emilie Hopmann (1845-1926)
-J
-Peter Joseph Imhoff (1768–1844)
+Emilie Hopmann (1845-1926)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Melaten-Friedhof</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Melaten-Friedhof</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Peter Joseph Imhoff (1768–1844)
 Wilhelm Joseph Imhoff (1791–1858)
 Karl Jachnick (1770–1851)
 Billy Jenkins (1885–1954)
 Carl Joest (1858–1942)
-Gerhard Jussenhoven (1911–2006)
-K
-Hans Katzer (1919–1996)
+Gerhard Jussenhoven (1911–2006)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Melaten-Friedhof</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Melaten-Friedhof</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Hans Katzer (1919–1996)
 Engelbert Kayser (1840–1911)
 Gerhard Kegel (1912–2006)
 Fritz Keller (1891–1943)
@@ -640,18 +963,86 @@
 Wolfgang Korruhn (1937–2003)
 Karel Krautgartner (1922–1982)
 Hildegard Krekel (1952–2013)
-Karl Küpper (1905–1970)
-L
-Heinz Ladendorf (1909–1992)
+Karl Küpper (1905–1970)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Melaten-Friedhof</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Melaten-Friedhof</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Heinz Ladendorf (1909–1992)
 Eugen Langen (1833–1895)
 Carl Leibl (1784–1870)
 Otto Michael Ludwig Leichtenstern (1845–1900)
 Jaki Liebezeit (1938–2017)
 Thomas Liessem (1900–1973)
 Franz Anton Löhr
-Jakob Johann Lyversberg (1761–1834)
-M
-Richard Mahkorn
+Jakob Johann Lyversberg (1761–1834)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Melaten-Friedhof</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Melaten-Friedhof</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Richard Mahkorn
 Max Martersteig (1853–1926)
 Maria Clementine Martin (1775–1843)
 Wilhelm Marx (1863–1946)
@@ -664,30 +1055,166 @@
 Josef Moest (1873–1914)
 Wilhelm Mülhens (1762–1841)
 Wolfgang Müller von Königswinter (1816–1873)
-Horst Muys (1925–1970)
-N
-Ernst Wilhelm Nay (1902–1968)
+Horst Muys (1925–1970)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Melaten-Friedhof</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Melaten-Friedhof</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Ernst Wilhelm Nay (1902–1968)
 John van Nes Ziegler (1921–2006)
 Manfred Niehaus (1933–2013)
-Alfred Nourney (1892–1972)
-O
-Emil (1833–1897) et Laura Oelbermann (1846–1929)
+Alfred Nourney (1892–1972)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Melaten-Friedhof</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Melaten-Friedhof</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Emil (1833–1897) et Laura Oelbermann (1846–1929)
 Alfred Freiherr von Oppenheim (1934–2005)
 Friedrich Carl von Oppenheim (1900–1978), banquier
 Willi Ostermann (1876–1936)
 August von Othegraven (1864–1946), compositeur
 Karl Thomas von Othegraven (1769–1844)
-Nikolaus August Otto (1832–1891), industriel
-P
-Heinrich Pachl (1943–2012)
+Nikolaus August Otto (1832–1891), industriel</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Melaten-Friedhof</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Melaten-Friedhof</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Heinrich Pachl (1943–2012)
 Gert von Paczensky (1925–2014)
 Emil Pfeifer (1806–1889)
 Hermann Otto Pflaume (1830–1901)
 Gunther Philipp (1918–2003)
 Sigmar Polke (1941–2010)
-Hermann Pünder (1888–1976)
-R
-Anton Räderscheidt (1892–1970)
+Hermann Pünder (1888–1976)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Melaten-Friedhof</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Melaten-Friedhof</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Anton Räderscheidt (1892–1970)
 Klaus Peter Rauen (1935–2018)
 Eugen Adolf Rautenstrauch
 August Reichensperger (1808–1895)
@@ -699,9 +1226,43 @@
 Joseph Roesberg
 Josef Rosemeyer (1872–1919)
 Kurt Rossa (1930–1998)
-Dieter Friedrich Graf von Rothenburg
-S
-Wilhelm Salber (1928–2016)
+Dieter Friedrich Graf von Rothenburg</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Melaten-Friedhof</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Melaten-Friedhof</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Wilhelm Salber (1928–2016)
 August Sander (1876–1964)
 Erich Sander (1903–1944)
 Heinz Schacht (1909–1987)
@@ -724,15 +1285,117 @@
 Hermann Joseph Stupp (1793–1870)
 Cornelius Stüssgen (1877–1956)
 Willi Suth (1881–1956)
-Jón Sveinsson (1857–1944)
-T
-Christine Teusch (1888–1968)
-U
-Gisela Uhlen (1919–2007)
+Jón Sveinsson (1857–1944)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Melaten-Friedhof</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Melaten-Friedhof</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Christine Teusch (1888–1968)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Melaten-Friedhof</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Melaten-Friedhof</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Gisela Uhlen (1919–2007)
 Klaus Ulonska (1942–2015)
-Oswald Mathias Ungers (1926–2007)
-W
-Ferdinand Franz Wallraf (1748–1824)
+Oswald Mathias Ungers (1926–2007)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Melaten-Friedhof</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Melaten-Friedhof</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Ferdinand Franz Wallraf (1748–1824)
 Max Wallraf (1859–1941)
 Guido Westerwelle (1961–2016)
 Johann Peter Weyer (1794–1864)
@@ -745,9 +1408,43 @@
 Hermann von Wissmann (1853–1905)
 Heinrich von Wittgenstein (1797–1869)
 Otto Wolff (1881–1940)
-Otto Wolff von Amerongen (1918–2007)
-Z
-Ernst Friedrich Zwirner (1802–1861)</t>
+Otto Wolff von Amerongen (1918–2007)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Melaten-Friedhof</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Melaten-Friedhof</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Ernst Friedrich Zwirner (1802–1861)</t>
         </is>
       </c>
     </row>
